--- a/jpcore-r4/feature/swg1-medicationsample-warning/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -532,16 +532,16 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>RpNumber</t>
-  </si>
-  <si>
-    <t>処方箋内部の剤グループとしてのRp番号</t>
-  </si>
-  <si>
-    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
-  </si>
-  <si>
-    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+    <t>RequestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダーに対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>MedicationRequest.identifier.id</t>
@@ -641,10 +641,10 @@
     <t>MedicationRequest.identifier.system</t>
   </si>
   <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)についてのsystem値</t>
-  </si>
-  <si>
-    <t>【JP-CORE】ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -653,7 +653,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.3.81</t>
+    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -671,13 +671,13 @@
     <t>MedicationRequest.identifier.value</t>
   </si>
   <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)</t>
-  </si>
-  <si>
-    <t>【JP-CORE】Rp番号(剤グループ番号)。"1"など。</t>
-  </si>
-  <si>
-    <t>【JP-CORE】value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -739,6 +739,36 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>RpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>【JP-CORE】Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>【JP-CORE】ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>【JP-CORE】Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>【JP-CORE】Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>【JP-CORE】value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
     <t>OrderInRp</t>
   </si>
   <si>
@@ -764,36 +794,6 @@
   </si>
   <si>
     <t>剤グループ内連番。</t>
-  </si>
-  <si>
-    <t>RequestIdentifier</t>
-  </si>
-  <si>
-    <t>処方オーダーに対するID</t>
-  </si>
-  <si>
-    <t>薬剤をオーダーする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -5712,10 +5712,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -6055,7 +6055,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
@@ -6171,7 +6171,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>81</v>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>89</v>
@@ -6517,7 +6517,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>81</v>
@@ -6629,7 +6629,7 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>81</v>
@@ -7454,7 +7454,7 @@
         <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -7765,17 +7765,17 @@
         <v>153</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -7790,13 +7790,13 @@
         <v>155</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -8115,7 +8115,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -8231,7 +8231,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
@@ -8362,10 +8362,10 @@
         <v>103</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>203</v>
@@ -8378,7 +8378,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>89</v>
@@ -8478,13 +8478,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -8577,7 +8577,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -8689,7 +8689,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg1-medicationsample-warning/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg1-medicationsample-warning/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>89</v>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>89</v>
